--- a/data/city.xlsx
+++ b/data/city.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minwoosong/Library/CloudStorage/Dropbox/Projects/eodi-ge/2025-10-17 a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Projects\omap-gg\2025-10-23\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08142D4C-E5D8-2D4B-B793-6C5574599824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CB5EF8-06DD-43F0-BBA1-40FA5269AD1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{92405171-8021-E04F-9859-694E52BD8296}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18945" xr2:uid="{92405171-8021-E04F-9859-694E52BD8296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2066,11 +2066,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2079,6 +2079,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2106,7 +2113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2122,7 +2129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2420,17 +2427,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B0646B-A504-7743-9D9A-E57A115934DA}">
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>127.1237708</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>127.1059186</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>127.04750199999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>127.03259799999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2591,7 +2603,7 @@
         <v>126.95148469999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2618,7 +2630,7 @@
         <v>126.9395</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>126.896004</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>126.8955105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -2699,7 +2711,7 @@
         <v>126.887536</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>126.849642</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>126.866642</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2780,7 +2792,7 @@
         <v>126.90149099999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2807,7 +2819,7 @@
         <v>126.93680000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>126.929164</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>127.056473</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>127.047163</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2915,7 +2927,7 @@
         <v>127.02561350000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2942,7 +2954,7 @@
         <v>127.016749</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -2969,7 +2981,7 @@
         <v>127.0925842</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -2996,7 +3008,7 @@
         <v>127.03964999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -3023,7 +3035,7 @@
         <v>127.082375</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -3050,7 +3062,7 @@
         <v>127.036821</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>126.99048999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3104,7 +3116,7 @@
         <v>126.997602</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>126.9788345</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -3158,7 +3170,7 @@
         <v>129.22231199999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -3185,7 +3197,7 @@
         <v>128.99125000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -3212,7 +3224,7 @@
         <v>129.11318600000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -3239,7 +3251,7 @@
         <v>129.07976400000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -3266,7 +3278,7 @@
         <v>128.98044999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -3293,7 +3305,7 @@
         <v>129.09209999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -3320,7 +3332,7 @@
         <v>128.974817</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>129.163634</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>128.99043800000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -3401,7 +3413,7 @@
         <v>129.08416299999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -3428,7 +3440,7 @@
         <v>129.09385689999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>129.053157</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -3482,7 +3494,7 @@
         <v>129.06787499999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -3509,7 +3521,7 @@
         <v>129.0453253</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -3536,7 +3548,7 @@
         <v>129.02441250000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>86</v>
       </c>
@@ -3563,7 +3575,7 @@
         <v>129.032352</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -3590,7 +3602,7 @@
         <v>128.431445</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -3617,7 +3629,7 @@
         <v>128.5327375</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -3644,7 +3656,7 @@
         <v>128.63062500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -3671,7 +3683,7 @@
         <v>128.58294699999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -3698,7 +3710,7 @@
         <v>128.597486</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -3725,7 +3737,7 @@
         <v>128.55917500000001</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
@@ -3752,7 +3764,7 @@
         <v>128.63560899999999</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -3779,7 +3791,7 @@
         <v>128.6062</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
@@ -3806,7 +3818,7 @@
         <v>128.57265699999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>126.63676</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -3860,7 +3872,7 @@
         <v>126.488052</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>126.675994</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>126.7377757</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>126.7218378</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>126.731488</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
@@ -3995,7 +4007,7 @@
         <v>126.67828</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>115</v>
       </c>
@@ -4022,7 +4034,7 @@
         <v>126.6505841</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
@@ -4049,7 +4061,7 @@
         <v>126.6432125</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -4076,7 +4088,7 @@
         <v>126.621588</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -4103,7 +4115,7 @@
         <v>126.79368340000001</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -4130,7 +4142,7 @@
         <v>126.911963</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -4157,7 +4169,7 @@
         <v>126.902402</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
@@ -4184,7 +4196,7 @@
         <v>126.890272</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
@@ -4211,7 +4223,7 @@
         <v>126.9232859</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
@@ -4238,7 +4250,7 @@
         <v>127.415502</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>127.3562683</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>131</v>
       </c>
@@ -4292,7 +4304,7 @@
         <v>127.383844</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>132</v>
       </c>
@@ -4319,7 +4331,7 @@
         <v>127.4215464</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>133</v>
       </c>
@@ -4346,7 +4358,7 @@
         <v>127.45488400000001</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>134</v>
       </c>
@@ -4373,7 +4385,7 @@
         <v>129.24222950000001</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>137</v>
       </c>
@@ -4400,7 +4412,7 @@
         <v>129.361313</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>138</v>
       </c>
@@ -4427,7 +4439,7 @@
         <v>129.41663199999999</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>139</v>
       </c>
@@ -4454,7 +4466,7 @@
         <v>129.33010899999999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>140</v>
       </c>
@@ -4481,7 +4493,7 @@
         <v>129.33269999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>141</v>
       </c>
@@ -4504,7 +4516,7 @@
         <v>127.2894325</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>142</v>
       </c>
@@ -4531,7 +4543,7 @@
         <v>127.48759699999999</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>145</v>
       </c>
@@ -4558,7 +4570,7 @@
         <v>127.509541</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>147</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>127.074755</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>149</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>127.637218</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>151</v>
       </c>
@@ -4639,7 +4651,7 @@
         <v>127.2002404</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>153</v>
       </c>
@@ -4666,7 +4678,7 @@
         <v>127.04584699999999</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>155</v>
       </c>
@@ -4693,7 +4705,7 @@
         <v>127.2550476</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>157</v>
       </c>
@@ -4720,7 +4732,7 @@
         <v>126.831405</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>159</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>126.71554399999999</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
@@ -4774,7 +4786,7 @@
         <v>127.27977319999999</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>163</v>
       </c>
@@ -4801,7 +4813,7 @@
         <v>127.435034</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>165</v>
       </c>
@@ -4828,7 +4840,7 @@
         <v>126.779883</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>167</v>
       </c>
@@ -4855,7 +4867,7 @@
         <v>127.1774916</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>169</v>
       </c>
@@ -4882,7 +4894,7 @@
         <v>127.2148742</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>171</v>
       </c>
@@ -4909,7 +4921,7 @@
         <v>126.9682786</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>173</v>
       </c>
@@ -4936,7 +4948,7 @@
         <v>126.935338</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>175</v>
       </c>
@@ -4963,7 +4975,7 @@
         <v>126.80293399999999</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>177</v>
       </c>
@@ -4990,7 +5002,7 @@
         <v>127.077462</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>179</v>
       </c>
@@ -5017,7 +5029,7 @@
         <v>127.21646699999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>181</v>
       </c>
@@ -5044,7 +5056,7 @@
         <v>127.129632</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>183</v>
       </c>
@@ -5071,7 +5083,7 @@
         <v>126.987675</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>185</v>
       </c>
@@ -5098,7 +5110,7 @@
         <v>126.8319831</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>187</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>126.8308176</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>189</v>
       </c>
@@ -5152,7 +5164,7 @@
         <v>127.060671</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>191</v>
       </c>
@@ -5179,7 +5191,7 @@
         <v>127.11269470000001</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>193</v>
       </c>
@@ -5206,7 +5218,7 @@
         <v>126.8646504</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>195</v>
       </c>
@@ -5233,7 +5245,7 @@
         <v>126.76600000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>197</v>
       </c>
@@ -5260,7 +5272,7 @@
         <v>126.9567534</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>199</v>
       </c>
@@ -5287,7 +5299,7 @@
         <v>127.033753</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>201</v>
       </c>
@@ -5314,7 +5326,7 @@
         <v>127.12677720000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>203</v>
       </c>
@@ -5341,7 +5353,7 @@
         <v>127.02864599999999</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>205</v>
       </c>
@@ -5368,7 +5380,7 @@
         <v>128.619145</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>208</v>
       </c>
@@ -5395,7 +5407,7 @@
         <v>128.4678625</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>210</v>
       </c>
@@ -5422,7 +5434,7 @@
         <v>128.17035200000001</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>212</v>
       </c>
@@ -5449,7 +5461,7 @@
         <v>127.99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>214</v>
       </c>
@@ -5476,7 +5488,7 @@
         <v>127.70821599999999</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>216</v>
       </c>
@@ -5503,7 +5515,7 @@
         <v>127.313472</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>218</v>
       </c>
@@ -5530,7 +5542,7 @@
         <v>128.66087099999999</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>220</v>
       </c>
@@ -5557,7 +5569,7 @@
         <v>128.39019300000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>222</v>
       </c>
@@ -5584,7 +5596,7 @@
         <v>128.46185</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>224</v>
       </c>
@@ -5611,7 +5623,7 @@
         <v>127.985022</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>226</v>
       </c>
@@ -5638,7 +5650,7 @@
         <v>127.888518</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>228</v>
       </c>
@@ -5665,7 +5677,7 @@
         <v>129.16514789999999</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>230</v>
       </c>
@@ -5692,7 +5704,7 @@
         <v>128.59183999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>232</v>
       </c>
@@ -5719,7 +5731,7 @@
         <v>128.98573500000001</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>234</v>
       </c>
@@ -5746,7 +5758,7 @@
         <v>129.1142625</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>236</v>
       </c>
@@ -5773,7 +5785,7 @@
         <v>128.87583599999999</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>238</v>
       </c>
@@ -5800,7 +5812,7 @@
         <v>127.91996880000001</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>240</v>
       </c>
@@ -5827,7 +5839,7 @@
         <v>127.7300034</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>242</v>
       </c>
@@ -5854,7 +5866,7 @@
         <v>128.365589</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>245</v>
       </c>
@@ -5881,7 +5893,7 @@
         <v>127.690487</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>247</v>
       </c>
@@ -5908,7 +5920,7 @@
         <v>127.786704</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>249</v>
       </c>
@@ -5935,7 +5947,7 @@
         <v>127.435602</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>251</v>
       </c>
@@ -5962,7 +5974,7 @@
         <v>127.581507</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>253</v>
       </c>
@@ -5989,7 +6001,7 @@
         <v>127.783423</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>255</v>
       </c>
@@ -6016,7 +6028,7 @@
         <v>127.5714191</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>257</v>
       </c>
@@ -6043,7 +6055,7 @@
         <v>127.729485</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>259</v>
       </c>
@@ -6070,7 +6082,7 @@
         <v>128.19103699999999</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>261</v>
       </c>
@@ -6097,7 +6109,7 @@
         <v>127.926012</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>263</v>
       </c>
@@ -6124,7 +6136,7 @@
         <v>127.488975</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>265</v>
       </c>
@@ -6151,7 +6163,7 @@
         <v>126.29791299999999</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>268</v>
       </c>
@@ -6178,7 +6190,7 @@
         <v>126.84473819999999</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>270</v>
       </c>
@@ -6205,7 +6217,7 @@
         <v>126.660775</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>272</v>
       </c>
@@ -6232,7 +6244,7 @@
         <v>126.802238</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>274</v>
       </c>
@@ -6259,7 +6271,7 @@
         <v>126.6917418</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>276</v>
       </c>
@@ -6286,7 +6298,7 @@
         <v>126.909775</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>278</v>
       </c>
@@ -6313,7 +6325,7 @@
         <v>127.488213</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>280</v>
       </c>
@@ -6340,7 +6352,7 @@
         <v>126.64590029999999</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>282</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>127.248633</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>284</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>127.09862270000001</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>286</v>
       </c>
@@ -6421,7 +6433,7 @@
         <v>126.4502766</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>288</v>
       </c>
@@ -6448,7 +6460,7 @@
         <v>127.00247400000001</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>290</v>
       </c>
@@ -6475,7 +6487,7 @@
         <v>126.612803</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>292</v>
       </c>
@@ -6502,7 +6514,7 @@
         <v>127.11904</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>294</v>
       </c>
@@ -6529,7 +6541,7 @@
         <v>127.11389200000001</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>296</v>
       </c>
@@ -6556,7 +6568,7 @@
         <v>126.733199</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>299</v>
       </c>
@@ -6583,7 +6595,7 @@
         <v>126.701973</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>301</v>
       </c>
@@ -6610,7 +6622,7 @@
         <v>127.137489</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>303</v>
       </c>
@@ -6637,7 +6649,7 @@
         <v>127.2890774</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>305</v>
       </c>
@@ -6664,7 +6676,7 @@
         <v>127.5215208</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>307</v>
       </c>
@@ -6691,7 +6703,7 @@
         <v>127.66081800000001</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>309</v>
       </c>
@@ -6718,7 +6730,7 @@
         <v>127.424875</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>311</v>
       </c>
@@ -6745,7 +6757,7 @@
         <v>127.162019</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>313</v>
       </c>
@@ -6772,7 +6784,7 @@
         <v>126.8808375</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>315</v>
       </c>
@@ -6799,7 +6811,7 @@
         <v>127.390438</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>317</v>
       </c>
@@ -6826,7 +6838,7 @@
         <v>126.856038</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>319</v>
       </c>
@@ -6853,7 +6865,7 @@
         <v>126.957786</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>321</v>
       </c>
@@ -6880,7 +6892,7 @@
         <v>126.736875</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>323</v>
       </c>
@@ -6907,7 +6919,7 @@
         <v>127.14805</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>325</v>
       </c>
@@ -6934,7 +6946,7 @@
         <v>126.351124</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>328</v>
       </c>
@@ -6961,7 +6973,7 @@
         <v>126.263475</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>330</v>
       </c>
@@ -6988,7 +7000,7 @@
         <v>126.7548524</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>332</v>
       </c>
@@ -7015,7 +7027,7 @@
         <v>126.784814</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>334</v>
       </c>
@@ -7042,7 +7054,7 @@
         <v>126.5120143</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>336</v>
       </c>
@@ -7069,7 +7081,7 @@
         <v>126.51658159999999</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>338</v>
       </c>
@@ -7096,7 +7108,7 @@
         <v>126.48171170000001</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>340</v>
       </c>
@@ -7123,7 +7135,7 @@
         <v>126.6967961</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>342</v>
       </c>
@@ -7150,7 +7162,7 @@
         <v>126.599225</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>344</v>
       </c>
@@ -7177,7 +7189,7 @@
         <v>126.7672</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>346</v>
       </c>
@@ -7204,7 +7216,7 @@
         <v>126.9070507</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>348</v>
       </c>
@@ -7231,7 +7243,7 @@
         <v>126.9864771</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>350</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>127.080088</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>352</v>
       </c>
@@ -7285,7 +7297,7 @@
         <v>127.275507</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>354</v>
       </c>
@@ -7312,7 +7324,7 @@
         <v>127.4629375</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>356</v>
       </c>
@@ -7339,7 +7351,7 @@
         <v>127.29197790000001</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>358</v>
       </c>
@@ -7366,7 +7378,7 @@
         <v>126.988175</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>360</v>
       </c>
@@ -7393,7 +7405,7 @@
         <v>127.6958987</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>362</v>
       </c>
@@ -7420,7 +7432,7 @@
         <v>126.710814</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>364</v>
       </c>
@@ -7447,7 +7459,7 @@
         <v>127.48724300000001</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>366</v>
       </c>
@@ -7474,7 +7486,7 @@
         <v>127.662313</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>368</v>
       </c>
@@ -7501,7 +7513,7 @@
         <v>126.3923375</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>370</v>
       </c>
@@ -7528,7 +7540,7 @@
         <v>130.905697</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>373</v>
       </c>
@@ -7555,7 +7567,7 @@
         <v>129.40039400000001</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>375</v>
       </c>
@@ -7582,7 +7594,7 @@
         <v>128.73250300000001</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>377</v>
       </c>
@@ -7609,7 +7621,7 @@
         <v>128.43735520000001</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>379</v>
       </c>
@@ -7636,7 +7648,7 @@
         <v>128.401679</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>381</v>
       </c>
@@ -7663,7 +7675,7 @@
         <v>128.28295900000001</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>383</v>
       </c>
@@ -7690,7 +7702,7 @@
         <v>128.262688</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>385</v>
       </c>
@@ -7717,7 +7729,7 @@
         <v>128.73398800000001</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>387</v>
       </c>
@@ -7744,7 +7756,7 @@
         <v>129.36526699999999</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>389</v>
       </c>
@@ -7771,7 +7783,7 @@
         <v>129.1123839</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>391</v>
       </c>
@@ -7798,7 +7810,7 @@
         <v>129.05712629999999</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>393</v>
       </c>
@@ -7825,7 +7837,7 @@
         <v>128.69717109999999</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>395</v>
       </c>
@@ -7852,7 +7864,7 @@
         <v>128.74120099999999</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>397</v>
       </c>
@@ -7879,7 +7891,7 @@
         <v>128.18678700000001</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>399</v>
       </c>
@@ -7906,7 +7918,7 @@
         <v>128.15922900000001</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>401</v>
       </c>
@@ -7933,7 +7945,7 @@
         <v>128.938613</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>403</v>
       </c>
@@ -7960,7 +7972,7 @@
         <v>128.62406300000001</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>405</v>
       </c>
@@ -7987,7 +7999,7 @@
         <v>128.3443</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>407</v>
       </c>
@@ -8014,7 +8026,7 @@
         <v>128.72953749999999</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>409</v>
       </c>
@@ -8041,7 +8053,7 @@
         <v>128.11361479999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>411</v>
       </c>
@@ -8068,7 +8080,7 @@
         <v>129.224784</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>413</v>
       </c>
@@ -8095,7 +8107,7 @@
         <v>129.34338980000001</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>415</v>
       </c>
@@ -8122,7 +8134,7 @@
         <v>128.16579899999999</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>418</v>
       </c>
@@ -8149,7 +8161,7 @@
         <v>127.909538</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>420</v>
       </c>
@@ -8176,7 +8188,7 @@
         <v>127.725245</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>422</v>
       </c>
@@ -8203,7 +8215,7 @@
         <v>127.873458</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>424</v>
       </c>
@@ -8230,7 +8242,7 @@
         <v>127.75127500000001</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>426</v>
       </c>
@@ -8257,7 +8269,7 @@
         <v>127.892475</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>428</v>
       </c>
@@ -8284,7 +8296,7 @@
         <v>128.3222643</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>429</v>
       </c>
@@ -8311,7 +8323,7 @@
         <v>128.492346</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>431</v>
       </c>
@@ -8338,7 +8350,7 @@
         <v>128.40659500000001</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>433</v>
       </c>
@@ -8365,7 +8377,7 @@
         <v>128.26167599999999</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>435</v>
       </c>
@@ -8392,7 +8404,7 @@
         <v>129.037339</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>437</v>
       </c>
@@ -8419,7 +8431,7 @@
         <v>128.62117029999999</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>439</v>
       </c>
@@ -8446,7 +8458,7 @@
         <v>128.746712</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>441</v>
       </c>
@@ -8473,7 +8485,7 @@
         <v>128.88932199999999</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>443</v>
       </c>
@@ -8500,7 +8512,7 @@
         <v>128.0638649</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>445</v>
       </c>
@@ -8527,7 +8539,7 @@
         <v>128.43311199999999</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>447</v>
       </c>
@@ -8554,7 +8566,7 @@
         <v>128.10764599999999</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>449</v>
       </c>
@@ -8581,7 +8593,7 @@
         <v>128.68187459999999</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>451</v>
       </c>
@@ -8608,7 +8620,7 @@
         <v>126.5597875</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>454</v>
       </c>
@@ -8636,6 +8648,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>